--- a/docs/03-BOM/EGR304_IndividualSubsystemBOM.xlsx
+++ b/docs/03-BOM/EGR304_IndividualSubsystemBOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksnha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BDC4E-30C3-4EA0-89FA-995FE0F68893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F7854F-2C86-4CAF-8A7C-D75F5063CC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B054BE2B-0BD3-40AE-AF1F-45D6665509DA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>Datasheet</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Digikey</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,16 +1877,16 @@
         <v>34</v>
       </c>
       <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>62</v>
@@ -1892,7 +1895,7 @@
         <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>41</v>
@@ -2050,7 +2053,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="5">
-        <v>31.9</v>
+        <v>41.02</v>
       </c>
     </row>
   </sheetData>
